--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.9822850645938772</v>
+        <v>0.9242434926832448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.9701992056259899</v>
+        <v>0.8807377634720996</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.9314596835305174</v>
+        <v>0.9382087515359209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.9604152130268676</v>
+        <v>0.9275089090905068</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.036521441258903</v>
+        <v>0.9422927017414917</v>
       </c>
     </row>
   </sheetData>
